--- a/都市熊外感疾病诊治经验.xlsx
+++ b/都市熊外感疾病诊治经验.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>都市熊治疗外感病经验总结</t>
   </si>
@@ -204,6 +204,9 @@
     <t>痰多</t>
   </si>
   <si>
+    <t>身体沉重乏力</t>
+  </si>
+  <si>
     <t>水湿</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
   </si>
   <si>
     <t>茯苓</t>
+  </si>
+  <si>
+    <t>白术</t>
   </si>
   <si>
     <t>小便痛</t>
@@ -341,6 +347,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -357,6 +370,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -365,49 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -418,22 +462,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,37 +490,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -494,187 +500,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,21 +691,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -727,6 +718,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -738,6 +759,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,30 +791,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -793,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,7 +1317,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1324,7 +1330,7 @@
     <col min="7" max="7" width="2" customWidth="1"/>
     <col min="8" max="8" width="1.875" customWidth="1"/>
     <col min="9" max="9" width="1.75" customWidth="1"/>
-    <col min="10" max="10" width="2.125" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
     <col min="11" max="11" width="21.25" customWidth="1"/>
     <col min="12" max="12" width="5.625" customWidth="1"/>
     <col min="13" max="14" width="3" customWidth="1"/>
@@ -1539,7 +1545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1552,58 +1558,67 @@
       <c r="D7" t="s">
         <v>61</v>
       </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
         <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2"/>
       <c r="P9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
         <v>51</v>
       </c>
       <c r="V9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s">
         <v>38</v>
@@ -1611,40 +1626,40 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" t="s">
-        <v>74</v>
-      </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="20:20">
